--- a/.hz_spec.xlsx
+++ b/.hz_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\hzfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C245C3-0A65-408B-B3CD-48ED2B694216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F956E2A-F30D-46F8-B429-F0C11193393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A70A5D46-F584-47DC-887D-84417E3FD838}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>文件格式标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned long long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,12 +475,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -499,21 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +828,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,59 +843,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21">
+        <v>16</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="28">
-        <v>16</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13">
         <v>4</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="6" t="s">
@@ -909,11 +905,11 @@
         <v>4</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -922,16 +918,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="18">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
@@ -941,32 +937,32 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>23</v>
+      <c r="A7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
@@ -977,14 +973,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>6</v>
@@ -993,11 +989,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1007,11 +1003,11 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>20</v>
+      <c r="A11" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
@@ -1019,7 +1015,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
